--- a/nowy.xlsx
+++ b/nowy.xlsx
@@ -19,12 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>gd</t>
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>sss</t>
   </si>
 </sst>
 </file>
@@ -342,30 +348,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K9:P11"/>
+  <dimension ref="K9:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="9" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="11:17" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="11:17" x14ac:dyDescent="0.25">
       <c r="P10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="11:17" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>1</v>
       </c>
       <c r="M11" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
